--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="157">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -500,7 +500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,6 +536,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -599,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -609,7 +618,12 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -893,7 +907,7 @@
   <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -950,7 +964,7 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D4" s="5">
@@ -964,10 +978,10 @@
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -992,10 +1006,10 @@
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1062,7 +1076,7 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="5">
@@ -1079,7 +1093,7 @@
       <c r="C13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1457,8 +1471,8 @@
       <c r="C40" s="5">
         <v>10</v>
       </c>
-      <c r="D40" t="s">
-        <v>156</v>
+      <c r="D40" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1471,7 +1485,7 @@
       <c r="C41" s="5">
         <v>10</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1541,7 +1555,7 @@
       <c r="C46" s="5">
         <v>10</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1650,7 +1664,7 @@
       <c r="B54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D54" s="5">
@@ -2003,7 +2017,7 @@
       <c r="C79" s="5">
         <v>10</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2322,7 +2336,7 @@
       <c r="B102" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D102" s="5">
@@ -2353,8 +2367,8 @@
       <c r="C104" s="5">
         <v>9</v>
       </c>
-      <c r="D104" t="s">
-        <v>156</v>
+      <c r="D104" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2395,8 +2409,8 @@
       <c r="C107" s="5">
         <v>10</v>
       </c>
-      <c r="D107" t="s">
-        <v>156</v>
+      <c r="D107" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2409,8 +2423,8 @@
       <c r="C108" s="5">
         <v>10</v>
       </c>
-      <c r="D108" t="s">
-        <v>156</v>
+      <c r="D108" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2434,11 +2448,11 @@
       <c r="B110" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="5">
-        <v>10</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="C110" s="5" t="s">
         <v>156</v>
+      </c>
+      <c r="D110" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2465,7 +2479,7 @@
       <c r="C112" s="5">
         <v>10</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="5">
         <v>10</v>
       </c>
     </row>
@@ -2563,7 +2577,7 @@
       <c r="C119" s="5">
         <v>9</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2854,7 +2868,7 @@
       <c r="B140" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="6" t="s">
         <v>156</v>
       </c>
       <c r="D140" s="5">
@@ -2899,7 +2913,7 @@
       <c r="C143" s="5">
         <v>10</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="6" t="s">
         <v>156</v>
       </c>
     </row>
@@ -2927,8 +2941,8 @@
       <c r="C145" s="5">
         <v>10</v>
       </c>
-      <c r="D145" t="s">
-        <v>156</v>
+      <c r="D145" s="5">
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -2969,8 +2983,8 @@
       <c r="C148" s="5">
         <v>10</v>
       </c>
-      <c r="D148" t="s">
-        <v>156</v>
+      <c r="D148" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -2983,8 +2997,8 @@
       <c r="C149" s="5">
         <v>10</v>
       </c>
-      <c r="D149" t="s">
-        <v>156</v>
+      <c r="D149" s="5">
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="157">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1485,8 +1485,8 @@
       <c r="C41" s="5">
         <v>10</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>156</v>
+      <c r="D41" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3060,5 +3060,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -907,7 +907,7 @@
   <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,8 +1664,8 @@
       <c r="B54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>156</v>
+      <c r="C54" s="6">
+        <v>10</v>
       </c>
       <c r="D54" s="5">
         <v>10</v>

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="157">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -964,8 +964,8 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>156</v>
+      <c r="C4" s="6">
+        <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>10</v>

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="159">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -494,6 +494,14 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>第三次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -623,6 +631,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -904,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -915,7 +929,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -928,8 +942,14 @@
       <c r="D1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -942,8 +962,14 @@
       <c r="D2" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="8">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -956,22 +982,34 @@
       <c r="D3" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="8">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>10</v>
       </c>
       <c r="D4" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="8">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -984,8 +1022,14 @@
       <c r="D5" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -996,10 +1040,16 @@
         <v>10</v>
       </c>
       <c r="D6" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9</v>
+      </c>
+      <c r="F6" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1012,8 +1062,14 @@
       <c r="D7" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1026,8 +1082,14 @@
       <c r="D8" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1040,8 +1102,14 @@
       <c r="D9" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="8">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1054,8 +1122,14 @@
       <c r="D10" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="8">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1068,22 +1142,34 @@
       <c r="D11" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="8">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>156</v>
+      <c r="C12" s="5">
+        <v>10</v>
       </c>
       <c r="D12" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="8">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1096,8 +1182,14 @@
       <c r="D13" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="8">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1110,8 +1202,14 @@
       <c r="D14" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1124,8 +1222,14 @@
       <c r="D15" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="8">
+        <v>7</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1138,8 +1242,14 @@
       <c r="D16" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="8">
+        <v>9</v>
+      </c>
+      <c r="F16" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1152,8 +1262,14 @@
       <c r="D17" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="8">
+        <v>9</v>
+      </c>
+      <c r="F17" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1166,8 +1282,14 @@
       <c r="D18" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="8">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1180,8 +1302,14 @@
       <c r="D19" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="8">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1194,8 +1322,14 @@
       <c r="D20" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="8">
+        <v>8</v>
+      </c>
+      <c r="F20" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1208,8 +1342,14 @@
       <c r="D21" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="8">
+        <v>6</v>
+      </c>
+      <c r="F21" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1222,8 +1362,14 @@
       <c r="D22" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="8">
+        <v>8</v>
+      </c>
+      <c r="F22" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1236,8 +1382,14 @@
       <c r="D23" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="8">
+        <v>8</v>
+      </c>
+      <c r="F23" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1250,8 +1402,14 @@
       <c r="D24" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="8">
+        <v>7</v>
+      </c>
+      <c r="F24" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1264,8 +1422,14 @@
       <c r="D25" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="8">
+        <v>10</v>
+      </c>
+      <c r="F25" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1278,8 +1442,14 @@
       <c r="D26" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="8">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1292,8 +1462,14 @@
       <c r="D27" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="8">
+        <v>8</v>
+      </c>
+      <c r="F27" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1306,8 +1482,14 @@
       <c r="D28" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="8">
+        <v>9</v>
+      </c>
+      <c r="F28" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1320,8 +1502,14 @@
       <c r="D29" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="8">
+        <v>8</v>
+      </c>
+      <c r="F29" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1334,8 +1522,14 @@
       <c r="D30" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="8">
+        <v>8</v>
+      </c>
+      <c r="F30" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1348,8 +1542,14 @@
       <c r="D31" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="8">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1362,8 +1562,14 @@
       <c r="D32" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="8">
+        <v>8</v>
+      </c>
+      <c r="F32" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1376,8 +1582,14 @@
       <c r="D33" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="8">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1390,8 +1602,14 @@
       <c r="D34" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="8">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1404,8 +1622,14 @@
       <c r="D35" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="8">
+        <v>8</v>
+      </c>
+      <c r="F35" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1418,8 +1642,14 @@
       <c r="D36" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="8">
+        <v>8</v>
+      </c>
+      <c r="F36" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1432,8 +1662,14 @@
       <c r="D37" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="8">
+        <v>10</v>
+      </c>
+      <c r="F37" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1446,8 +1682,14 @@
       <c r="D38" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="8">
+        <v>8</v>
+      </c>
+      <c r="F38" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1460,8 +1702,14 @@
       <c r="D39" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="8">
+        <v>9</v>
+      </c>
+      <c r="F39" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1474,8 +1722,14 @@
       <c r="D40" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E40" s="8">
+        <v>9</v>
+      </c>
+      <c r="F40" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1485,11 +1739,17 @@
       <c r="C41" s="5">
         <v>10</v>
       </c>
-      <c r="D41" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D41" s="5">
+        <v>8</v>
+      </c>
+      <c r="E41" s="8">
+        <v>7</v>
+      </c>
+      <c r="F41" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1502,8 +1762,14 @@
       <c r="D42" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42" s="8">
+        <v>7</v>
+      </c>
+      <c r="F42" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1516,8 +1782,14 @@
       <c r="D43" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E43" s="8">
+        <v>8</v>
+      </c>
+      <c r="F43" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1530,8 +1802,14 @@
       <c r="D44" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44" s="8">
+        <v>8</v>
+      </c>
+      <c r="F44" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1544,8 +1822,14 @@
       <c r="D45" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1558,8 +1842,14 @@
       <c r="D46" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1572,8 +1862,14 @@
       <c r="D47" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="8">
+        <v>10</v>
+      </c>
+      <c r="F47" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1586,8 +1882,14 @@
       <c r="D48" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="8">
+        <v>10</v>
+      </c>
+      <c r="F48" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1600,8 +1902,14 @@
       <c r="D49" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="8">
+        <v>8</v>
+      </c>
+      <c r="F49" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1614,8 +1922,14 @@
       <c r="D50" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="8">
+        <v>9</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1628,8 +1942,14 @@
       <c r="D51" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="8">
+        <v>8</v>
+      </c>
+      <c r="F51" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1642,8 +1962,14 @@
       <c r="D52" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="8">
+        <v>8</v>
+      </c>
+      <c r="F52" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1656,22 +1982,34 @@
       <c r="D53" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="8">
+        <v>9</v>
+      </c>
+      <c r="F53" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="6">
+      <c r="C54" s="5">
         <v>10</v>
       </c>
       <c r="D54" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="8">
+        <v>9</v>
+      </c>
+      <c r="F54" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -1684,8 +2022,14 @@
       <c r="D55" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="8">
+        <v>8</v>
+      </c>
+      <c r="F55" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -1698,8 +2042,14 @@
       <c r="D56" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="8">
+        <v>7</v>
+      </c>
+      <c r="F56" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -1712,8 +2062,14 @@
       <c r="D57" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="8">
+        <v>9</v>
+      </c>
+      <c r="F57" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -1726,8 +2082,14 @@
       <c r="D58" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="8">
+        <v>8</v>
+      </c>
+      <c r="F58" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -1740,8 +2102,14 @@
       <c r="D59" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="8">
+        <v>8</v>
+      </c>
+      <c r="F59" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -1754,8 +2122,14 @@
       <c r="D60" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="F60" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -1768,8 +2142,14 @@
       <c r="D61" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="8">
+        <v>7</v>
+      </c>
+      <c r="F61" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -1782,8 +2162,14 @@
       <c r="D62" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="8">
+        <v>8</v>
+      </c>
+      <c r="F62" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1796,8 +2182,14 @@
       <c r="D63" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E63" s="8">
+        <v>7</v>
+      </c>
+      <c r="F63" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1808,10 +2200,16 @@
         <v>10</v>
       </c>
       <c r="D64" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="E64" s="8">
+        <v>7</v>
+      </c>
+      <c r="F64" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1824,8 +2222,14 @@
       <c r="D65" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" s="8">
+        <v>9</v>
+      </c>
+      <c r="F65" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -1838,8 +2242,14 @@
       <c r="D66" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" s="8">
+        <v>10</v>
+      </c>
+      <c r="F66" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -1852,8 +2262,14 @@
       <c r="D67" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" s="8">
+        <v>9</v>
+      </c>
+      <c r="F67" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -1866,8 +2282,14 @@
       <c r="D68" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" s="8">
+        <v>9</v>
+      </c>
+      <c r="F68" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1880,8 +2302,14 @@
       <c r="D69" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" s="8">
+        <v>8</v>
+      </c>
+      <c r="F69" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -1894,8 +2322,14 @@
       <c r="D70" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" s="8">
+        <v>7</v>
+      </c>
+      <c r="F70" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -1908,8 +2342,14 @@
       <c r="D71" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" s="8">
+        <v>10</v>
+      </c>
+      <c r="F71" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -1922,8 +2362,14 @@
       <c r="D72" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" s="8">
+        <v>10</v>
+      </c>
+      <c r="F72" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -1936,8 +2382,14 @@
       <c r="D73" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -1950,8 +2402,14 @@
       <c r="D74" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="F74" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -1964,8 +2422,14 @@
       <c r="D75" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" s="8">
+        <v>10</v>
+      </c>
+      <c r="F75" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -1978,8 +2442,14 @@
       <c r="D76" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" s="8">
+        <v>8</v>
+      </c>
+      <c r="F76" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -1992,8 +2462,14 @@
       <c r="D77" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" s="8">
+        <v>10</v>
+      </c>
+      <c r="F77" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2006,8 +2482,14 @@
       <c r="D78" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" s="8">
+        <v>8</v>
+      </c>
+      <c r="F78" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2020,8 +2502,14 @@
       <c r="D79" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2034,8 +2522,14 @@
       <c r="D80" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="F80" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2048,8 +2542,14 @@
       <c r="D81" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" s="8">
+        <v>9</v>
+      </c>
+      <c r="F81" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2062,8 +2562,14 @@
       <c r="D82" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" s="8">
+        <v>9</v>
+      </c>
+      <c r="F82" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2076,8 +2582,14 @@
       <c r="D83" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" s="8">
+        <v>8</v>
+      </c>
+      <c r="F83" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2090,8 +2602,14 @@
       <c r="D84" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" s="8">
+        <v>10</v>
+      </c>
+      <c r="F84" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2104,8 +2622,14 @@
       <c r="D85" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" s="8">
+        <v>10</v>
+      </c>
+      <c r="F85" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2118,8 +2642,14 @@
       <c r="D86" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E86" s="8">
+        <v>8</v>
+      </c>
+      <c r="F86" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -2132,8 +2662,14 @@
       <c r="D87" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E87" s="8">
+        <v>9</v>
+      </c>
+      <c r="F87" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2146,8 +2682,14 @@
       <c r="D88" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E88" s="8">
+        <v>7</v>
+      </c>
+      <c r="F88" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2160,8 +2702,14 @@
       <c r="D89" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E89" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2174,8 +2722,14 @@
       <c r="D90" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E90" s="8">
+        <v>9</v>
+      </c>
+      <c r="F90" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2188,8 +2742,14 @@
       <c r="D91" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E91" s="8">
+        <v>10</v>
+      </c>
+      <c r="F91" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2202,8 +2762,14 @@
       <c r="D92" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E92" s="8">
+        <v>7</v>
+      </c>
+      <c r="F92" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -2216,8 +2782,14 @@
       <c r="D93" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E93" s="8">
+        <v>9</v>
+      </c>
+      <c r="F93" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2230,8 +2802,14 @@
       <c r="D94" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E94" s="8">
+        <v>8</v>
+      </c>
+      <c r="F94" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -2244,8 +2822,14 @@
       <c r="D95" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E95" s="8">
+        <v>9</v>
+      </c>
+      <c r="F95" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -2258,8 +2842,14 @@
       <c r="D96" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="8">
+        <v>7</v>
+      </c>
+      <c r="F96" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -2272,8 +2862,14 @@
       <c r="D97" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="8">
+        <v>8</v>
+      </c>
+      <c r="F97" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -2286,8 +2882,14 @@
       <c r="D98" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E98" s="8">
+        <v>9</v>
+      </c>
+      <c r="F98" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -2300,8 +2902,14 @@
       <c r="D99" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E99" s="8">
+        <v>8</v>
+      </c>
+      <c r="F99" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2314,8 +2922,14 @@
       <c r="D100" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E100" s="8">
+        <v>8</v>
+      </c>
+      <c r="F100" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -2328,22 +2942,34 @@
       <c r="D101" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E101" s="8">
+        <v>10</v>
+      </c>
+      <c r="F101" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>156</v>
+      <c r="C102" s="5">
+        <v>9</v>
       </c>
       <c r="D102" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E102" s="8">
+        <v>7</v>
+      </c>
+      <c r="F102" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -2356,8 +2982,14 @@
       <c r="D103" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E103" s="8">
+        <v>7</v>
+      </c>
+      <c r="F103" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -2370,8 +3002,14 @@
       <c r="D104" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E104" s="8">
+        <v>7</v>
+      </c>
+      <c r="F104" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -2384,8 +3022,14 @@
       <c r="D105" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E105" s="8">
+        <v>7</v>
+      </c>
+      <c r="F105" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -2398,8 +3042,14 @@
       <c r="D106" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E106" s="8">
+        <v>10</v>
+      </c>
+      <c r="F106" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -2412,8 +3062,14 @@
       <c r="D107" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E107" s="8">
+        <v>8</v>
+      </c>
+      <c r="F107" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -2426,8 +3082,14 @@
       <c r="D108" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E108" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -2440,8 +3102,14 @@
       <c r="D109" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E109" s="8">
+        <v>10</v>
+      </c>
+      <c r="F109" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -2454,8 +3122,14 @@
       <c r="D110" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E110" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -2468,8 +3142,14 @@
       <c r="D111" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E111" s="8">
+        <v>9</v>
+      </c>
+      <c r="F111" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -2482,8 +3162,14 @@
       <c r="D112" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E112" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -2496,8 +3182,14 @@
       <c r="D113" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E113" s="8">
+        <v>10</v>
+      </c>
+      <c r="F113" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -2510,8 +3202,14 @@
       <c r="D114" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E114" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="F114" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -2524,8 +3222,14 @@
       <c r="D115" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E115" s="8">
+        <v>10</v>
+      </c>
+      <c r="F115" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -2538,8 +3242,14 @@
       <c r="D116" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E116" s="8">
+        <v>8</v>
+      </c>
+      <c r="F116" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -2552,8 +3262,14 @@
       <c r="D117" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E117" s="8">
+        <v>9</v>
+      </c>
+      <c r="F117" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -2566,8 +3282,14 @@
       <c r="D118" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E118" s="8">
+        <v>7</v>
+      </c>
+      <c r="F118" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -2580,8 +3302,14 @@
       <c r="D119" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E119" s="8">
+        <v>7</v>
+      </c>
+      <c r="F119" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -2594,8 +3322,14 @@
       <c r="D120" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E120" s="8">
+        <v>10</v>
+      </c>
+      <c r="F120" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -2608,8 +3342,14 @@
       <c r="D121" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E121" s="8">
+        <v>10</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -2622,8 +3362,14 @@
       <c r="D122" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E122" s="8">
+        <v>8</v>
+      </c>
+      <c r="F122" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -2636,8 +3382,14 @@
       <c r="D123" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E123" s="8">
+        <v>7</v>
+      </c>
+      <c r="F123" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -2650,8 +3402,14 @@
       <c r="D124" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E124" s="8">
+        <v>10</v>
+      </c>
+      <c r="F124" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -2664,8 +3422,14 @@
       <c r="D125" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E125" s="8">
+        <v>10</v>
+      </c>
+      <c r="F125" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -2678,8 +3442,14 @@
       <c r="D126" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E126" s="8">
+        <v>7</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -2692,8 +3462,14 @@
       <c r="D127" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E127" s="8">
+        <v>8</v>
+      </c>
+      <c r="F127" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -2706,8 +3482,14 @@
       <c r="D128" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E128" s="8">
+        <v>8</v>
+      </c>
+      <c r="F128" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -2720,8 +3502,14 @@
       <c r="D129" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E129" s="8">
+        <v>8</v>
+      </c>
+      <c r="F129" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -2734,8 +3522,14 @@
       <c r="D130" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E130" s="8">
+        <v>9</v>
+      </c>
+      <c r="F130" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -2748,8 +3542,14 @@
       <c r="D131" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E131" s="8">
+        <v>10</v>
+      </c>
+      <c r="F131" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -2762,8 +3562,14 @@
       <c r="D132" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E132" s="8">
+        <v>9</v>
+      </c>
+      <c r="F132" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -2776,8 +3582,14 @@
       <c r="D133" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E133" s="8">
+        <v>7</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -2790,8 +3602,14 @@
       <c r="D134" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E134" s="8">
+        <v>9</v>
+      </c>
+      <c r="F134" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -2804,8 +3622,14 @@
       <c r="D135" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E135" s="8">
+        <v>8</v>
+      </c>
+      <c r="F135" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -2818,8 +3642,14 @@
       <c r="D136" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E136" s="8">
+        <v>10</v>
+      </c>
+      <c r="F136" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -2832,8 +3662,14 @@
       <c r="D137" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E137" s="8">
+        <v>10</v>
+      </c>
+      <c r="F137" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -2846,8 +3682,14 @@
       <c r="D138" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E138" s="8">
+        <v>7</v>
+      </c>
+      <c r="F138" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -2860,8 +3702,14 @@
       <c r="D139" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E139" s="8">
+        <v>8</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -2874,8 +3722,14 @@
       <c r="D140" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E140" s="8">
+        <v>7</v>
+      </c>
+      <c r="F140" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -2888,8 +3742,14 @@
       <c r="D141" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E141" s="8">
+        <v>8</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -2902,8 +3762,14 @@
       <c r="D142" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E142" s="8">
+        <v>10</v>
+      </c>
+      <c r="F142" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -2916,8 +3782,14 @@
       <c r="D143" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E143" s="8">
+        <v>10</v>
+      </c>
+      <c r="F143" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -2930,8 +3802,14 @@
       <c r="D144" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E144" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -2944,8 +3822,14 @@
       <c r="D145" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E145" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -2958,8 +3842,14 @@
       <c r="D146" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E146" s="8">
+        <v>10</v>
+      </c>
+      <c r="F146" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -2972,8 +3862,14 @@
       <c r="D147" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E147" s="8">
+        <v>8</v>
+      </c>
+      <c r="F147" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -2986,8 +3882,14 @@
       <c r="D148" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E148" s="8">
+        <v>8</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -3000,8 +3902,14 @@
       <c r="D149" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E149" s="8">
+        <v>8</v>
+      </c>
+      <c r="F149" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -3014,8 +3922,14 @@
       <c r="D150" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E150" s="8">
+        <v>8</v>
+      </c>
+      <c r="F150" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -3028,8 +3942,14 @@
       <c r="D151" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E151" s="8">
+        <v>8</v>
+      </c>
+      <c r="F151" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -3042,8 +3962,14 @@
       <c r="D152" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E152" s="8">
+        <v>9</v>
+      </c>
+      <c r="F152" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -3055,6 +3981,12 @@
       </c>
       <c r="D153" s="5">
         <v>9</v>
+      </c>
+      <c r="E153" s="8">
+        <v>9.5</v>
+      </c>
+      <c r="F153" s="8">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1822,8 +1822,8 @@
       <c r="D45" s="5">
         <v>10</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>156</v>
+      <c r="E45" s="7">
+        <v>10</v>
       </c>
       <c r="F45" s="8">
         <v>10</v>
@@ -1925,8 +1925,8 @@
       <c r="E50" s="8">
         <v>9</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>156</v>
+      <c r="F50" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="160">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -501,6 +501,10 @@
   </si>
   <si>
     <t>第四次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -918,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,7 +933,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -948,8 +952,11 @@
       <c r="F1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -968,8 +975,11 @@
       <c r="F2" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -988,8 +998,11 @@
       <c r="F3" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1008,8 +1021,11 @@
       <c r="F4" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1028,8 +1044,11 @@
       <c r="F5" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1048,28 +1067,34 @@
       <c r="F6" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>156</v>
+      <c r="C7" s="5">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8">
+        <v>9</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1086,10 +1111,13 @@
         <v>8</v>
       </c>
       <c r="F8" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1108,8 +1136,11 @@
       <c r="F9" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1128,8 +1159,11 @@
       <c r="F10" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1148,8 +1182,11 @@
       <c r="F11" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1168,8 +1205,11 @@
       <c r="F12" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1188,8 +1228,11 @@
       <c r="F13" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1208,8 +1251,11 @@
       <c r="F14" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1228,8 +1274,11 @@
       <c r="F15" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1248,8 +1297,11 @@
       <c r="F16" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1268,8 +1320,11 @@
       <c r="F17" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1288,8 +1343,11 @@
       <c r="F18" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1308,8 +1366,11 @@
       <c r="F19" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1328,8 +1389,11 @@
       <c r="F20" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1348,8 +1412,11 @@
       <c r="F21" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1368,8 +1435,11 @@
       <c r="F22" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1388,8 +1458,11 @@
       <c r="F23" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1408,8 +1481,11 @@
       <c r="F24" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1428,8 +1504,11 @@
       <c r="F25" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1448,8 +1527,11 @@
       <c r="F26" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1468,8 +1550,11 @@
       <c r="F27" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1488,8 +1573,11 @@
       <c r="F28" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1508,8 +1596,11 @@
       <c r="F29" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1528,8 +1619,11 @@
       <c r="F30" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1548,8 +1642,11 @@
       <c r="F31" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1568,8 +1665,11 @@
       <c r="F32" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1588,8 +1688,11 @@
       <c r="F33" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1608,8 +1711,11 @@
       <c r="F34" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1628,8 +1734,11 @@
       <c r="F35" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1648,8 +1757,11 @@
       <c r="F36" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1668,8 +1780,11 @@
       <c r="F37" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1688,8 +1803,11 @@
       <c r="F38" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1708,8 +1826,11 @@
       <c r="F39" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1728,8 +1849,11 @@
       <c r="F40" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1748,8 +1872,11 @@
       <c r="F41" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1768,8 +1895,11 @@
       <c r="F42" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1788,8 +1918,11 @@
       <c r="F43" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1808,8 +1941,11 @@
       <c r="F44" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1822,14 +1958,17 @@
       <c r="D45" s="5">
         <v>10</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>10</v>
       </c>
       <c r="F45" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1848,8 +1987,11 @@
       <c r="F46" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -1868,8 +2010,11 @@
       <c r="F47" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -1888,8 +2033,11 @@
       <c r="F48" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -1908,8 +2056,11 @@
       <c r="F49" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -1925,11 +2076,14 @@
       <c r="E50" s="8">
         <v>9</v>
       </c>
-      <c r="F50" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="8">
+        <v>10</v>
+      </c>
+      <c r="G50" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -1948,8 +2102,11 @@
       <c r="F51" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -1968,8 +2125,11 @@
       <c r="F52" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -1988,8 +2148,11 @@
       <c r="F53" s="8">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2008,8 +2171,11 @@
       <c r="F54" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2028,8 +2194,11 @@
       <c r="F55" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2048,8 +2217,11 @@
       <c r="F56" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2068,8 +2240,11 @@
       <c r="F57" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2088,8 +2263,11 @@
       <c r="F58" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2108,8 +2286,11 @@
       <c r="F59" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2128,8 +2309,11 @@
       <c r="F60" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2148,8 +2332,11 @@
       <c r="F61" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2168,8 +2355,11 @@
       <c r="F62" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2188,8 +2378,11 @@
       <c r="F63" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2208,8 +2401,11 @@
       <c r="F64" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2228,8 +2424,11 @@
       <c r="F65" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2248,8 +2447,11 @@
       <c r="F66" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2268,8 +2470,11 @@
       <c r="F67" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2288,8 +2493,11 @@
       <c r="F68" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2308,8 +2516,11 @@
       <c r="F69" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2328,8 +2539,11 @@
       <c r="F70" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2348,8 +2562,11 @@
       <c r="F71" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2368,8 +2585,11 @@
       <c r="F72" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2382,14 +2602,17 @@
       <c r="D73" s="5">
         <v>8</v>
       </c>
-      <c r="E73" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E73" s="8">
+        <v>7</v>
+      </c>
+      <c r="F73" s="8">
+        <v>7</v>
+      </c>
+      <c r="G73" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2408,8 +2631,11 @@
       <c r="F74" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2428,8 +2654,11 @@
       <c r="F75" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2448,8 +2677,11 @@
       <c r="F76" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2468,8 +2700,11 @@
       <c r="F77" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2488,8 +2723,11 @@
       <c r="F78" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2508,8 +2746,11 @@
       <c r="F79" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2528,8 +2769,11 @@
       <c r="F80" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2548,8 +2792,11 @@
       <c r="F81" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2568,8 +2815,11 @@
       <c r="F82" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2588,8 +2838,11 @@
       <c r="F83" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2608,8 +2861,11 @@
       <c r="F84" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2628,8 +2884,11 @@
       <c r="F85" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2648,8 +2907,11 @@
       <c r="F86" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -2668,8 +2930,11 @@
       <c r="F87" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2688,8 +2953,11 @@
       <c r="F88" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2708,8 +2976,11 @@
       <c r="F89" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -2728,8 +2999,11 @@
       <c r="F90" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -2748,8 +3022,11 @@
       <c r="F91" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -2768,8 +3045,11 @@
       <c r="F92" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -2788,8 +3068,11 @@
       <c r="F93" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -2808,8 +3091,11 @@
       <c r="F94" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -2828,8 +3114,11 @@
       <c r="F95" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -2848,8 +3137,11 @@
       <c r="F96" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -2868,8 +3160,11 @@
       <c r="F97" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -2888,8 +3183,11 @@
       <c r="F98" s="8">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -2908,8 +3206,11 @@
       <c r="F99" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -2928,8 +3229,11 @@
       <c r="F100" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -2948,8 +3252,11 @@
       <c r="F101" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -2968,8 +3275,11 @@
       <c r="F102" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -2988,8 +3298,11 @@
       <c r="F103" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -3008,8 +3321,11 @@
       <c r="F104" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -3028,8 +3344,11 @@
       <c r="F105" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -3048,8 +3367,11 @@
       <c r="F106" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -3068,8 +3390,11 @@
       <c r="F107" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -3082,14 +3407,17 @@
       <c r="D108" s="5">
         <v>10</v>
       </c>
-      <c r="E108" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E108" s="7">
+        <v>10</v>
+      </c>
+      <c r="F108" s="7">
+        <v>10</v>
+      </c>
+      <c r="G108" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -3108,8 +3436,11 @@
       <c r="F109" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -3128,8 +3459,11 @@
       <c r="F110" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -3148,8 +3482,11 @@
       <c r="F111" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -3162,14 +3499,17 @@
       <c r="D112" s="5">
         <v>10</v>
       </c>
-      <c r="E112" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E112" s="7">
+        <v>10</v>
+      </c>
+      <c r="F112" s="7">
+        <v>10</v>
+      </c>
+      <c r="G112" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -3188,8 +3528,11 @@
       <c r="F113" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -3208,8 +3551,11 @@
       <c r="F114" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -3228,8 +3574,11 @@
       <c r="F115" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -3248,8 +3597,11 @@
       <c r="F116" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -3268,8 +3620,11 @@
       <c r="F117" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -3288,8 +3643,11 @@
       <c r="F118" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -3308,8 +3666,11 @@
       <c r="F119" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -3328,8 +3689,11 @@
       <c r="F120" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -3348,8 +3712,11 @@
       <c r="F121" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -3368,8 +3735,11 @@
       <c r="F122" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -3388,8 +3758,11 @@
       <c r="F123" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -3408,8 +3781,11 @@
       <c r="F124" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -3428,8 +3804,11 @@
       <c r="F125" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -3448,8 +3827,11 @@
       <c r="F126" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G126" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -3468,8 +3850,11 @@
       <c r="F127" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G127" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -3488,8 +3873,11 @@
       <c r="F128" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G128" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -3508,8 +3896,11 @@
       <c r="F129" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G129" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -3528,8 +3919,11 @@
       <c r="F130" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G130" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -3548,8 +3942,11 @@
       <c r="F131" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G131" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -3568,8 +3965,11 @@
       <c r="F132" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G132" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -3585,11 +3985,14 @@
       <c r="E133" s="8">
         <v>7</v>
       </c>
-      <c r="F133" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="8">
+        <v>7</v>
+      </c>
+      <c r="G133" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -3608,8 +4011,11 @@
       <c r="F134" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G134" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -3628,8 +4034,11 @@
       <c r="F135" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G135" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -3648,8 +4057,11 @@
       <c r="F136" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G136" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -3668,8 +4080,11 @@
       <c r="F137" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G137" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -3688,8 +4103,11 @@
       <c r="F138" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G138" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -3708,8 +4126,11 @@
       <c r="F139" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G139" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -3728,8 +4149,11 @@
       <c r="F140" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G140" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -3748,8 +4172,11 @@
       <c r="F141" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G141" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -3768,8 +4195,11 @@
       <c r="F142" s="8">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G142" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -3788,8 +4218,11 @@
       <c r="F143" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G143" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -3808,8 +4241,11 @@
       <c r="F144" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G144" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -3822,14 +4258,17 @@
       <c r="D145" s="5">
         <v>10</v>
       </c>
-      <c r="E145" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E145" s="7">
+        <v>10</v>
+      </c>
+      <c r="F145" s="7">
+        <v>10</v>
+      </c>
+      <c r="G145" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -3848,8 +4287,11 @@
       <c r="F146" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G146" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -3868,8 +4310,11 @@
       <c r="F147" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G147" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -3885,11 +4330,14 @@
       <c r="E148" s="8">
         <v>8</v>
       </c>
-      <c r="F148" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F148" s="8">
+        <v>8</v>
+      </c>
+      <c r="G148" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -3908,8 +4356,11 @@
       <c r="F149" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G149" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -3928,8 +4379,11 @@
       <c r="F150" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G150" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -3948,8 +4402,11 @@
       <c r="F151" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G151" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -3968,8 +4425,11 @@
       <c r="F152" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G152" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -3987,6 +4447,9 @@
       </c>
       <c r="F153" s="8">
         <v>8</v>
+      </c>
+      <c r="G153" s="8">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -505,6 +505,10 @@
   </si>
   <si>
     <t>第五次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -922,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -933,7 +937,7 @@
     <col min="2" max="2" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,8 +959,11 @@
       <c r="G1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -978,8 +985,11 @@
       <c r="G2" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1001,8 +1011,11 @@
       <c r="G3" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1024,8 +1037,11 @@
       <c r="G4" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1047,8 +1063,11 @@
       <c r="G5" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1070,8 +1089,11 @@
       <c r="G6" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1093,8 +1115,11 @@
       <c r="G7" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1116,8 +1141,11 @@
       <c r="G8" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1139,8 +1167,11 @@
       <c r="G9" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1162,8 +1193,11 @@
       <c r="G10" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1185,8 +1219,11 @@
       <c r="G11" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1208,8 +1245,11 @@
       <c r="G12" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1231,8 +1271,11 @@
       <c r="G13" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1254,8 +1297,11 @@
       <c r="G14" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1277,8 +1323,11 @@
       <c r="G15" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1300,8 +1349,11 @@
       <c r="G16" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1323,8 +1375,11 @@
       <c r="G17" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1346,8 +1401,11 @@
       <c r="G18" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1369,8 +1427,11 @@
       <c r="G19" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1392,8 +1453,11 @@
       <c r="G20" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1415,8 +1479,11 @@
       <c r="G21" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1438,8 +1505,11 @@
       <c r="G22" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1461,8 +1531,11 @@
       <c r="G23" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -1484,8 +1557,11 @@
       <c r="G24" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -1507,8 +1583,11 @@
       <c r="G25" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1527,11 +1606,14 @@
       <c r="F26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="8">
+        <v>9</v>
+      </c>
+      <c r="H26" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1553,8 +1635,11 @@
       <c r="G27" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -1576,8 +1661,11 @@
       <c r="G28" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -1599,8 +1687,11 @@
       <c r="G29" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1622,8 +1713,11 @@
       <c r="G30" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -1645,8 +1739,11 @@
       <c r="G31" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -1668,8 +1765,11 @@
       <c r="G32" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -1691,8 +1791,11 @@
       <c r="G33" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -1714,8 +1817,11 @@
       <c r="G34" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1737,8 +1843,11 @@
       <c r="G35" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -1757,11 +1866,14 @@
       <c r="F36" s="8">
         <v>7</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="8">
+        <v>10</v>
+      </c>
+      <c r="H36" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -1783,8 +1895,11 @@
       <c r="G37" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -1806,8 +1921,11 @@
       <c r="G38" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -1829,8 +1947,11 @@
       <c r="G39" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1849,11 +1970,14 @@
       <c r="F40" s="8">
         <v>7</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G40" s="8">
+        <v>9</v>
+      </c>
+      <c r="H40" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -1875,8 +1999,11 @@
       <c r="G41" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -1898,8 +2025,11 @@
       <c r="G42" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -1921,8 +2051,11 @@
       <c r="G43" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -1944,8 +2077,11 @@
       <c r="G44" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H44" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1967,8 +2103,11 @@
       <c r="G45" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H45" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -1990,8 +2129,11 @@
       <c r="G46" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2013,8 +2155,11 @@
       <c r="G47" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H47" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2036,8 +2181,11 @@
       <c r="G48" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H48" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2059,8 +2207,11 @@
       <c r="G49" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H49" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2082,8 +2233,11 @@
       <c r="G50" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H50" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2105,8 +2259,11 @@
       <c r="G51" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H51" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2125,11 +2282,14 @@
       <c r="F52" s="8">
         <v>8</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G52" s="8">
+        <v>10</v>
+      </c>
+      <c r="H52" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2151,8 +2311,11 @@
       <c r="G53" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2174,8 +2337,11 @@
       <c r="G54" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H54" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2197,8 +2363,11 @@
       <c r="G55" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H55" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2220,8 +2389,11 @@
       <c r="G56" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H56" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2243,8 +2415,11 @@
       <c r="G57" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H57" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2266,8 +2441,11 @@
       <c r="G58" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H58" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2289,8 +2467,11 @@
       <c r="G59" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H59" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2312,8 +2493,11 @@
       <c r="G60" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H60" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2335,8 +2519,11 @@
       <c r="G61" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H61" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2358,8 +2545,11 @@
       <c r="G62" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H62" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2381,8 +2571,11 @@
       <c r="G63" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H63" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2404,8 +2597,11 @@
       <c r="G64" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H64" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2427,8 +2623,11 @@
       <c r="G65" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H65" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2450,8 +2649,11 @@
       <c r="G66" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H66" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2473,8 +2675,11 @@
       <c r="G67" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H67" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2493,11 +2698,14 @@
       <c r="F68" s="8">
         <v>9</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G68" s="8">
+        <v>9</v>
+      </c>
+      <c r="H68" s="8">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2519,8 +2727,11 @@
       <c r="G69" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H69" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2542,8 +2753,11 @@
       <c r="G70" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H70" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2565,8 +2779,11 @@
       <c r="G71" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H71" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2585,11 +2802,14 @@
       <c r="F72" s="8">
         <v>10</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G72" s="8">
+        <v>10</v>
+      </c>
+      <c r="H72" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -2611,8 +2831,11 @@
       <c r="G73" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H73" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -2634,8 +2857,11 @@
       <c r="G74" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H74" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -2657,8 +2883,11 @@
       <c r="G75" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H75" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -2680,8 +2909,11 @@
       <c r="G76" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H76" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -2703,8 +2935,11 @@
       <c r="G77" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H77" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -2726,8 +2961,11 @@
       <c r="G78" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H78" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -2749,8 +2987,11 @@
       <c r="G79" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H79" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -2772,8 +3013,11 @@
       <c r="G80" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -2795,8 +3039,11 @@
       <c r="G81" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -2818,8 +3065,11 @@
       <c r="G82" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -2841,8 +3091,11 @@
       <c r="G83" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -2864,8 +3117,11 @@
       <c r="G84" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -2887,8 +3143,11 @@
       <c r="G85" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -2910,8 +3169,11 @@
       <c r="G86" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -2933,8 +3195,11 @@
       <c r="G87" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -2956,8 +3221,11 @@
       <c r="G88" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -2979,8 +3247,11 @@
       <c r="G89" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3002,8 +3273,11 @@
       <c r="G90" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3025,8 +3299,11 @@
       <c r="G91" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -3048,8 +3325,11 @@
       <c r="G92" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -3071,8 +3351,11 @@
       <c r="G93" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -3094,8 +3377,11 @@
       <c r="G94" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -3117,8 +3403,11 @@
       <c r="G95" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -3140,8 +3429,11 @@
       <c r="G96" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H96" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -3163,8 +3455,11 @@
       <c r="G97" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H97" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -3183,11 +3478,14 @@
       <c r="F98" s="8">
         <v>9.5</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G98" s="8">
+        <v>8</v>
+      </c>
+      <c r="H98" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -3209,8 +3507,11 @@
       <c r="G99" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H99" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -3232,8 +3533,11 @@
       <c r="G100" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H100" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -3255,8 +3559,11 @@
       <c r="G101" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H101" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -3275,11 +3582,14 @@
       <c r="F102" s="8">
         <v>9</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="8">
+        <v>8</v>
+      </c>
+      <c r="H102" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -3301,8 +3611,11 @@
       <c r="G103" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H103" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -3324,8 +3637,11 @@
       <c r="G104" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H104" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -3344,11 +3660,14 @@
       <c r="F105" s="8">
         <v>7</v>
       </c>
-      <c r="G105" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G105" s="8">
+        <v>9</v>
+      </c>
+      <c r="H105" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -3370,8 +3689,11 @@
       <c r="G106" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H106" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -3393,8 +3715,11 @@
       <c r="G107" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H107" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -3407,17 +3732,20 @@
       <c r="D108" s="5">
         <v>10</v>
       </c>
-      <c r="E108" s="7">
-        <v>10</v>
-      </c>
-      <c r="F108" s="7">
-        <v>10</v>
-      </c>
-      <c r="G108" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E108" s="8">
+        <v>10</v>
+      </c>
+      <c r="F108" s="8">
+        <v>10</v>
+      </c>
+      <c r="G108" s="8">
+        <v>10</v>
+      </c>
+      <c r="H108" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -3439,31 +3767,37 @@
       <c r="G109" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>156</v>
+      <c r="C110" s="5">
+        <v>10</v>
       </c>
       <c r="D110" s="5">
         <v>10</v>
       </c>
-      <c r="E110" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E110" s="8">
+        <v>10</v>
+      </c>
+      <c r="F110" s="8">
+        <v>10</v>
+      </c>
+      <c r="G110" s="8">
+        <v>10</v>
+      </c>
+      <c r="H110" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -3485,8 +3819,11 @@
       <c r="G111" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H111" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -3499,17 +3836,20 @@
       <c r="D112" s="5">
         <v>10</v>
       </c>
-      <c r="E112" s="7">
-        <v>10</v>
-      </c>
-      <c r="F112" s="7">
-        <v>10</v>
-      </c>
-      <c r="G112" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E112" s="8">
+        <v>10</v>
+      </c>
+      <c r="F112" s="8">
+        <v>10</v>
+      </c>
+      <c r="G112" s="8">
+        <v>10</v>
+      </c>
+      <c r="H112" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -3531,8 +3871,11 @@
       <c r="G113" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H113" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -3554,8 +3897,11 @@
       <c r="G114" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H114" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -3574,11 +3920,14 @@
       <c r="F115" s="8">
         <v>10</v>
       </c>
-      <c r="G115" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G115" s="8">
+        <v>10</v>
+      </c>
+      <c r="H115" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -3600,8 +3949,11 @@
       <c r="G116" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -3623,8 +3975,11 @@
       <c r="G117" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H117" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -3646,8 +4001,11 @@
       <c r="G118" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H118" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -3669,8 +4027,11 @@
       <c r="G119" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H119" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -3692,8 +4053,11 @@
       <c r="G120" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -3709,14 +4073,17 @@
       <c r="E121" s="8">
         <v>10</v>
       </c>
-      <c r="F121" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F121" s="8">
+        <v>9</v>
+      </c>
+      <c r="G121" s="8">
+        <v>9</v>
+      </c>
+      <c r="H121" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -3738,8 +4105,11 @@
       <c r="G122" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H122" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -3761,8 +4131,11 @@
       <c r="G123" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H123" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -3784,8 +4157,11 @@
       <c r="G124" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H124" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -3804,11 +4180,14 @@
       <c r="F125" s="8">
         <v>10</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G125" s="8">
+        <v>10</v>
+      </c>
+      <c r="H125" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -3830,8 +4209,11 @@
       <c r="G126" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H126" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -3853,8 +4235,11 @@
       <c r="G127" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H127" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -3876,8 +4261,11 @@
       <c r="G128" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H128" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -3899,8 +4287,11 @@
       <c r="G129" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H129" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -3922,8 +4313,11 @@
       <c r="G130" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H130" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -3945,8 +4339,11 @@
       <c r="G131" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H131" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -3968,8 +4365,11 @@
       <c r="G132" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H132" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -3991,8 +4391,11 @@
       <c r="G133" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H133" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -4014,8 +4417,11 @@
       <c r="G134" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H134" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -4037,8 +4443,11 @@
       <c r="G135" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H135" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -4060,8 +4469,11 @@
       <c r="G136" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H136" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -4083,8 +4495,11 @@
       <c r="G137" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H137" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -4106,8 +4521,11 @@
       <c r="G138" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H138" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -4123,14 +4541,17 @@
       <c r="E139" s="8">
         <v>8</v>
       </c>
-      <c r="F139" s="7" t="s">
-        <v>156</v>
+      <c r="F139" s="8">
+        <v>10</v>
       </c>
       <c r="G139" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H139" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -4152,8 +4573,11 @@
       <c r="G140" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H140" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -4169,14 +4593,17 @@
       <c r="E141" s="8">
         <v>8</v>
       </c>
-      <c r="F141" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G141" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F141" s="8">
+        <v>9</v>
+      </c>
+      <c r="G141" s="8">
+        <v>8</v>
+      </c>
+      <c r="H141" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -4198,8 +4625,11 @@
       <c r="G142" s="8">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H142" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -4209,8 +4639,8 @@
       <c r="C143" s="5">
         <v>10</v>
       </c>
-      <c r="D143" s="6" t="s">
-        <v>156</v>
+      <c r="D143" s="5">
+        <v>10</v>
       </c>
       <c r="E143" s="8">
         <v>10</v>
@@ -4218,11 +4648,14 @@
       <c r="F143" s="8">
         <v>10</v>
       </c>
-      <c r="G143" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G143" s="8">
+        <v>9</v>
+      </c>
+      <c r="H143" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -4244,8 +4677,11 @@
       <c r="G144" s="7" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H144" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -4258,17 +4694,20 @@
       <c r="D145" s="5">
         <v>10</v>
       </c>
-      <c r="E145" s="7">
-        <v>10</v>
-      </c>
-      <c r="F145" s="7">
-        <v>10</v>
-      </c>
-      <c r="G145" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E145" s="8">
+        <v>10</v>
+      </c>
+      <c r="F145" s="8">
+        <v>10</v>
+      </c>
+      <c r="G145" s="8">
+        <v>10</v>
+      </c>
+      <c r="H145" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -4290,8 +4729,11 @@
       <c r="G146" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H146" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -4311,10 +4753,13 @@
         <v>10</v>
       </c>
       <c r="G147" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="H147" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -4336,8 +4781,11 @@
       <c r="G148" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H148" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -4359,8 +4807,11 @@
       <c r="G149" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H149" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -4382,8 +4833,11 @@
       <c r="G150" s="8">
         <v>10</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H150" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -4405,8 +4859,11 @@
       <c r="G151" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H151" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -4428,8 +4885,11 @@
       <c r="G152" s="8">
         <v>9</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H152" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -4450,6 +4910,9 @@
       </c>
       <c r="G153" s="8">
         <v>9</v>
+      </c>
+      <c r="H153" s="8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3868,8 +3868,8 @@
       <c r="F113" s="8">
         <v>9</v>
       </c>
-      <c r="G113" s="7" t="s">
-        <v>156</v>
+      <c r="G113" s="7">
+        <v>9</v>
       </c>
       <c r="H113" s="8">
         <v>10</v>

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1661,8 +1661,8 @@
       <c r="G28" s="8">
         <v>8</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>156</v>
+      <c r="H28" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2702,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="H68" s="8">
-        <v>910</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3421,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F96" s="8">
         <v>9</v>
@@ -4558,8 +4558,8 @@
       <c r="B140" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>156</v>
+      <c r="C140" s="6">
+        <v>9</v>
       </c>
       <c r="D140" s="5">
         <v>9</v>
@@ -4573,8 +4573,8 @@
       <c r="G140" s="8">
         <v>7</v>
       </c>
-      <c r="H140" s="7" t="s">
-        <v>156</v>
+      <c r="H140" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1603,8 +1603,8 @@
       <c r="E26" s="8">
         <v>8</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
+      <c r="F26" s="7">
+        <v>8</v>
       </c>
       <c r="G26" s="8">
         <v>9</v>
@@ -4203,14 +4203,14 @@
       <c r="E126" s="8">
         <v>7</v>
       </c>
-      <c r="F126" s="7" t="s">
-        <v>156</v>
+      <c r="F126" s="7">
+        <v>9</v>
       </c>
       <c r="G126" s="8">
         <v>7</v>
       </c>
-      <c r="H126" s="7" t="s">
-        <v>156</v>
+      <c r="H126" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1109,8 +1109,8 @@
       <c r="E7" s="8">
         <v>9</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>156</v>
+      <c r="F7" s="7">
+        <v>10</v>
       </c>
       <c r="G7" s="8">
         <v>7</v>
@@ -3923,8 +3923,8 @@
       <c r="G115" s="8">
         <v>10</v>
       </c>
-      <c r="H115" s="7" t="s">
-        <v>156</v>
+      <c r="H115" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3296,8 +3296,8 @@
       <c r="F91" s="8">
         <v>9</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>156</v>
+      <c r="G91" s="7">
+        <v>10</v>
       </c>
       <c r="H91" s="8">
         <v>10</v>

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+      <selection activeCell="H108" sqref="H108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3637,8 +3637,8 @@
       <c r="G104" s="8">
         <v>9</v>
       </c>
-      <c r="H104" s="7" t="s">
-        <v>156</v>
+      <c r="H104" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1193,8 +1193,8 @@
       <c r="G10" s="8">
         <v>10</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>156</v>
+      <c r="H10" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1895,8 +1895,8 @@
       <c r="G37" s="8">
         <v>10</v>
       </c>
-      <c r="H37" s="7" t="s">
-        <v>156</v>
+      <c r="H37" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -1996,11 +1996,11 @@
       <c r="F41" s="8">
         <v>7</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>156</v>
+      <c r="G41" s="7">
+        <v>8</v>
+      </c>
+      <c r="H41" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3238,17 +3238,17 @@
       <c r="D89" s="5">
         <v>9</v>
       </c>
-      <c r="E89" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>156</v>
+      <c r="E89" s="7">
+        <v>8</v>
+      </c>
+      <c r="F89" s="7">
+        <v>7</v>
+      </c>
+      <c r="G89" s="7">
+        <v>7</v>
+      </c>
+      <c r="H89" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
@@ -3603,7 +3603,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F103" s="8">
         <v>9</v>

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92"/>
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3013,8 +3013,8 @@
       <c r="G80" s="8">
         <v>10</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>156</v>
+      <c r="H80" s="7">
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1259,20 +1259,20 @@
       <c r="C13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>156</v>
+      <c r="D13" s="6">
+        <v>7</v>
       </c>
       <c r="E13" s="8">
         <v>7</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>156</v>
+      <c r="F13" s="7">
+        <v>8</v>
+      </c>
+      <c r="G13" s="7">
+        <v>8</v>
+      </c>
+      <c r="H13" s="7">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1:H153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1320,8 +1320,8 @@
       <c r="F15" s="8">
         <v>7</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>156</v>
+      <c r="G15" s="7">
+        <v>9</v>
       </c>
       <c r="H15" s="8">
         <v>10</v>

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4015,8 +4015,8 @@
       <c r="C119" s="5">
         <v>9</v>
       </c>
-      <c r="D119" s="6" t="s">
-        <v>156</v>
+      <c r="D119" s="6">
+        <v>10</v>
       </c>
       <c r="E119" s="8">
         <v>7</v>
@@ -4024,11 +4024,11 @@
       <c r="F119" s="8">
         <v>8</v>
       </c>
-      <c r="G119" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H119" s="7" t="s">
-        <v>156</v>
+      <c r="G119" s="7">
+        <v>9</v>
+      </c>
+      <c r="H119" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">

--- a/score/算法作业成绩汇总.xlsx
+++ b/score/算法作业成绩汇总.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2975,17 +2975,17 @@
       <c r="C79" s="5">
         <v>10</v>
       </c>
-      <c r="D79" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>156</v>
+      <c r="D79" s="6">
+        <v>7</v>
+      </c>
+      <c r="E79" s="7">
+        <v>7</v>
+      </c>
+      <c r="F79" s="7">
+        <v>7</v>
+      </c>
+      <c r="G79" s="7">
+        <v>7</v>
       </c>
       <c r="H79" s="8">
         <v>10</v>
